--- a/data/summary.xlsx
+++ b/data/summary.xlsx
@@ -1,15 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janec\Desktop\thecolumn\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7573EF74-9469-454E-B37A-D22F767CE0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-21615" yWindow="8895" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1441,8 +1456,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1505,6 +1520,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1551,7 +1574,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1583,9 +1606,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1617,6 +1658,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1792,14 +1851,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1831,7 +1893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1848,10 +1910,10 @@
         <v>6</v>
       </c>
       <c r="F2">
-        <v>1.1724</v>
+        <v>1.1724000000000001</v>
       </c>
       <c r="G2">
-        <v>0.0588</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1863,7 +1925,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1880,10 +1942,10 @@
         <v>22</v>
       </c>
       <c r="F3">
-        <v>1.9189</v>
+        <v>1.9189000000000001</v>
       </c>
       <c r="G3">
-        <v>0.1549</v>
+        <v>0.15490000000000001</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1895,7 +1957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1915,7 +1977,7 @@
         <v>1.5769</v>
       </c>
       <c r="G4">
-        <v>0.3333</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1927,7 +1989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1944,10 +2006,10 @@
         <v>7</v>
       </c>
       <c r="F5">
-        <v>1.6463</v>
+        <v>1.6463000000000001</v>
       </c>
       <c r="G5">
-        <v>0.0519</v>
+        <v>5.1900000000000002E-2</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1959,7 +2021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1976,10 +2038,10 @@
         <v>15</v>
       </c>
       <c r="F6">
-        <v>3.253</v>
+        <v>3.2530000000000001</v>
       </c>
       <c r="G6">
-        <v>0.0556</v>
+        <v>5.5599999999999997E-2</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1991,7 +2053,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2008,10 +2070,10 @@
         <v>109</v>
       </c>
       <c r="F7">
-        <v>0.7643</v>
+        <v>0.76429999999999998</v>
       </c>
       <c r="G7">
-        <v>0.3263</v>
+        <v>0.32629999999999998</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2023,7 +2085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2040,10 +2102,10 @@
         <v>119</v>
       </c>
       <c r="F8">
-        <v>0.772</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="G8">
-        <v>0.3315</v>
+        <v>0.33150000000000002</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -2055,7 +2117,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -2072,10 +2134,10 @@
         <v>102</v>
       </c>
       <c r="F9">
-        <v>0.8428</v>
+        <v>0.84279999999999999</v>
       </c>
       <c r="G9">
-        <v>0.2537</v>
+        <v>0.25369999999999998</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -2087,7 +2149,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -2104,10 +2166,10 @@
         <v>77</v>
       </c>
       <c r="F10">
-        <v>1.0332</v>
+        <v>1.0331999999999999</v>
       </c>
       <c r="G10">
-        <v>0.1546</v>
+        <v>0.15459999999999999</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -2119,7 +2181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -2136,7 +2198,7 @@
         <v>91</v>
       </c>
       <c r="F11">
-        <v>0.8193</v>
+        <v>0.81930000000000003</v>
       </c>
       <c r="G11">
         <v>0.223</v>
@@ -2151,7 +2213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -2168,10 +2230,10 @@
         <v>124</v>
       </c>
       <c r="F12">
-        <v>0.7287</v>
+        <v>0.72870000000000001</v>
       </c>
       <c r="G12">
-        <v>0.3298</v>
+        <v>0.32979999999999998</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -2183,7 +2245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -2200,10 +2262,10 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.8405</v>
+        <v>0.84050000000000002</v>
       </c>
       <c r="G13">
-        <v>0.0833</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2215,7 +2277,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -2232,7 +2294,7 @@
         <v>121</v>
       </c>
       <c r="F14">
-        <v>0.7452</v>
+        <v>0.74519999999999997</v>
       </c>
       <c r="G14">
         <v>0.3135</v>
@@ -2247,7 +2309,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -2264,10 +2326,10 @@
         <v>92</v>
       </c>
       <c r="F15">
-        <v>0.9596</v>
+        <v>0.95960000000000001</v>
       </c>
       <c r="G15">
-        <v>0.1491</v>
+        <v>0.14910000000000001</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -2279,7 +2341,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -2296,10 +2358,10 @@
         <v>146</v>
       </c>
       <c r="F16">
-        <v>0.7564</v>
+        <v>0.75639999999999996</v>
       </c>
       <c r="G16">
-        <v>0.292</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -2311,7 +2373,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -2328,10 +2390,10 @@
         <v>83</v>
       </c>
       <c r="F17">
-        <v>0.7025</v>
+        <v>0.70250000000000001</v>
       </c>
       <c r="G17">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2343,7 +2405,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -2363,7 +2425,7 @@
         <v>0.8296</v>
       </c>
       <c r="G18">
-        <v>0.1423</v>
+        <v>0.14230000000000001</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2375,7 +2437,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -2392,10 +2454,10 @@
         <v>75</v>
       </c>
       <c r="F19">
-        <v>0.7242</v>
+        <v>0.72419999999999995</v>
       </c>
       <c r="G19">
-        <v>0.1503</v>
+        <v>0.15029999999999999</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2407,7 +2469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -2424,7 +2486,7 @@
         <v>84</v>
       </c>
       <c r="F20">
-        <v>0.7858000000000001</v>
+        <v>0.78580000000000005</v>
       </c>
       <c r="G20">
         <v>0.1547</v>
@@ -2439,7 +2501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -2456,10 +2518,10 @@
         <v>31</v>
       </c>
       <c r="F21">
-        <v>0.7453</v>
+        <v>0.74529999999999996</v>
       </c>
       <c r="G21">
-        <v>0.0602</v>
+        <v>6.0199999999999997E-2</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2471,7 +2533,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -2488,10 +2550,10 @@
         <v>70</v>
       </c>
       <c r="F22">
-        <v>0.7496</v>
+        <v>0.74960000000000004</v>
       </c>
       <c r="G22">
-        <v>0.1344</v>
+        <v>0.13439999999999999</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2503,7 +2565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -2520,10 +2582,10 @@
         <v>41</v>
       </c>
       <c r="F23">
-        <v>0.9399</v>
+        <v>0.93989999999999996</v>
       </c>
       <c r="G23">
-        <v>0.0624</v>
+        <v>6.2399999999999997E-2</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2535,7 +2597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -2567,7 +2629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -2584,10 +2646,10 @@
         <v>77</v>
       </c>
       <c r="F25">
-        <v>0.7929</v>
+        <v>0.79290000000000005</v>
       </c>
       <c r="G25">
-        <v>0.1377</v>
+        <v>0.13769999999999999</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2599,7 +2661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -2616,10 +2678,10 @@
         <v>99</v>
       </c>
       <c r="F26">
-        <v>0.6213</v>
+        <v>0.62129999999999996</v>
       </c>
       <c r="G26">
-        <v>0.226</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2631,7 +2693,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -2648,10 +2710,10 @@
         <v>48</v>
       </c>
       <c r="F27">
-        <v>0.802</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="G27">
-        <v>0.0847</v>
+        <v>8.4699999999999998E-2</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2663,7 +2725,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -2680,10 +2742,10 @@
         <v>44</v>
       </c>
       <c r="F28">
-        <v>0.6273</v>
+        <v>0.62729999999999997</v>
       </c>
       <c r="G28">
-        <v>0.0987</v>
+        <v>9.8699999999999996E-2</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2695,7 +2757,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -2712,10 +2774,10 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>0.8121</v>
+        <v>0.81210000000000004</v>
       </c>
       <c r="G29">
-        <v>0.0484</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2727,7 +2789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -2744,10 +2806,10 @@
         <v>62</v>
       </c>
       <c r="F30">
-        <v>0.6334</v>
+        <v>0.63339999999999996</v>
       </c>
       <c r="G30">
-        <v>0.1339</v>
+        <v>0.13389999999999999</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2759,7 +2821,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -2776,10 +2838,10 @@
         <v>130</v>
       </c>
       <c r="F31">
-        <v>0.7049</v>
+        <v>0.70489999999999997</v>
       </c>
       <c r="G31">
-        <v>0.2519</v>
+        <v>0.25190000000000001</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2791,7 +2853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -2808,7 +2870,7 @@
         <v>68</v>
       </c>
       <c r="F32">
-        <v>0.6311</v>
+        <v>0.63109999999999999</v>
       </c>
       <c r="G32">
         <v>0.1472</v>
@@ -2823,7 +2885,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -2840,10 +2902,10 @@
         <v>141</v>
       </c>
       <c r="F33">
-        <v>0.6344</v>
+        <v>0.63439999999999996</v>
       </c>
       <c r="G33">
-        <v>0.3032</v>
+        <v>0.30320000000000003</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -2855,7 +2917,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -2872,10 +2934,10 @@
         <v>118</v>
       </c>
       <c r="F34">
-        <v>0.5739</v>
+        <v>0.57389999999999997</v>
       </c>
       <c r="G34">
-        <v>0.279</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -2887,7 +2949,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -2904,7 +2966,7 @@
         <v>60</v>
       </c>
       <c r="F35">
-        <v>0.8073</v>
+        <v>0.80730000000000002</v>
       </c>
       <c r="G35">
         <v>0.1008</v>
@@ -2919,7 +2981,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -2936,7 +2998,7 @@
         <v>74</v>
       </c>
       <c r="F36">
-        <v>0.7168</v>
+        <v>0.71679999999999999</v>
       </c>
       <c r="G36">
         <v>0.1399</v>
@@ -2951,7 +3013,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
@@ -2968,7 +3030,7 @@
         <v>74</v>
       </c>
       <c r="F37">
-        <v>0.7168</v>
+        <v>0.71679999999999999</v>
       </c>
       <c r="G37">
         <v>0.1399</v>
@@ -2983,7 +3045,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
@@ -3015,7 +3077,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
@@ -3035,7 +3097,7 @@
         <v>0.7873</v>
       </c>
       <c r="G39">
-        <v>0.09229999999999999</v>
+        <v>9.2299999999999993E-2</v>
       </c>
       <c r="H39">
         <v>4</v>
@@ -3047,7 +3109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>47</v>
       </c>
@@ -3067,7 +3129,7 @@
         <v>0.6512</v>
       </c>
       <c r="G40">
-        <v>0.09569999999999999</v>
+        <v>9.5699999999999993E-2</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -3079,7 +3141,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
@@ -3096,10 +3158,10 @@
         <v>172</v>
       </c>
       <c r="F41">
-        <v>0.6267</v>
+        <v>0.62670000000000003</v>
       </c>
       <c r="G41">
-        <v>0.3699</v>
+        <v>0.36990000000000001</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -3111,7 +3173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
@@ -3128,7 +3190,7 @@
         <v>56</v>
       </c>
       <c r="F42">
-        <v>0.6194</v>
+        <v>0.61939999999999995</v>
       </c>
       <c r="G42">
         <v>0.1186</v>
@@ -3143,7 +3205,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>50</v>
       </c>
@@ -3160,10 +3222,10 @@
         <v>200</v>
       </c>
       <c r="F43">
-        <v>0.7038</v>
+        <v>0.70379999999999998</v>
       </c>
       <c r="G43">
-        <v>0.3676</v>
+        <v>0.36759999999999998</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -3175,7 +3237,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
@@ -3192,10 +3254,10 @@
         <v>165</v>
       </c>
       <c r="F44">
-        <v>0.6032999999999999</v>
+        <v>0.60329999999999995</v>
       </c>
       <c r="G44">
-        <v>0.3511</v>
+        <v>0.35110000000000002</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -3207,7 +3269,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
@@ -3224,10 +3286,10 @@
         <v>41</v>
       </c>
       <c r="F45">
-        <v>0.6424</v>
+        <v>0.64239999999999997</v>
       </c>
       <c r="G45">
-        <v>0.0815</v>
+        <v>8.1500000000000003E-2</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -3239,7 +3301,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
@@ -3256,10 +3318,10 @@
         <v>35</v>
       </c>
       <c r="F46">
-        <v>0.6378</v>
+        <v>0.63780000000000003</v>
       </c>
       <c r="G46">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -3271,7 +3333,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>54</v>
       </c>
@@ -3288,7 +3350,7 @@
         <v>108</v>
       </c>
       <c r="F47">
-        <v>0.5592</v>
+        <v>0.55920000000000003</v>
       </c>
       <c r="G47">
         <v>0.246</v>
@@ -3303,7 +3365,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
@@ -3320,10 +3382,10 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>0.5463</v>
+        <v>0.54630000000000001</v>
       </c>
       <c r="G48">
-        <v>0.0742</v>
+        <v>7.4200000000000002E-2</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -3335,7 +3397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
@@ -3352,7 +3414,7 @@
         <v>63</v>
       </c>
       <c r="F49">
-        <v>0.5452</v>
+        <v>0.54520000000000002</v>
       </c>
       <c r="G49">
         <v>0.1452</v>
@@ -3367,7 +3429,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
@@ -3384,10 +3446,10 @@
         <v>72</v>
       </c>
       <c r="F50">
-        <v>0.5332</v>
+        <v>0.53320000000000001</v>
       </c>
       <c r="G50">
-        <v>0.169</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -3399,7 +3461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
@@ -3416,10 +3478,10 @@
         <v>71</v>
       </c>
       <c r="F51">
-        <v>0.7231</v>
+        <v>0.72309999999999997</v>
       </c>
       <c r="G51">
-        <v>0.1214</v>
+        <v>0.12139999999999999</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -3431,7 +3493,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>59</v>
       </c>
@@ -3448,10 +3510,10 @@
         <v>45</v>
       </c>
       <c r="F52">
-        <v>0.6064000000000001</v>
+        <v>0.60640000000000005</v>
       </c>
       <c r="G52">
-        <v>0.09180000000000001</v>
+        <v>9.1800000000000007E-2</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -3463,7 +3525,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>60</v>
       </c>
@@ -3480,7 +3542,7 @@
         <v>54</v>
       </c>
       <c r="F53">
-        <v>0.5306</v>
+        <v>0.53059999999999996</v>
       </c>
       <c r="G53">
         <v>0.1244</v>
@@ -3495,7 +3557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
@@ -3512,10 +3574,10 @@
         <v>40</v>
       </c>
       <c r="F54">
-        <v>0.6725</v>
+        <v>0.67249999999999999</v>
       </c>
       <c r="G54">
-        <v>0.0738</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -3527,7 +3589,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>62</v>
       </c>
@@ -3544,7 +3606,7 @@
         <v>136</v>
       </c>
       <c r="F55">
-        <v>0.6304999999999999</v>
+        <v>0.63049999999999995</v>
       </c>
       <c r="G55">
         <v>0.2631</v>
@@ -3559,7 +3621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
@@ -3576,7 +3638,7 @@
         <v>147</v>
       </c>
       <c r="F56">
-        <v>1.0917</v>
+        <v>1.0916999999999999</v>
       </c>
       <c r="G56">
         <v>0.1646</v>
@@ -3591,7 +3653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>64</v>
       </c>
@@ -3608,10 +3670,10 @@
         <v>32</v>
       </c>
       <c r="F57">
-        <v>0.5328000000000001</v>
+        <v>0.53280000000000005</v>
       </c>
       <c r="G57">
-        <v>0.0731</v>
+        <v>7.3099999999999998E-2</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -3623,7 +3685,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>65</v>
       </c>
@@ -3640,7 +3702,7 @@
         <v>40</v>
       </c>
       <c r="F58">
-        <v>0.4534</v>
+        <v>0.45340000000000003</v>
       </c>
       <c r="G58">
         <v>0.1067</v>
@@ -3655,7 +3717,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>66</v>
       </c>
@@ -3672,10 +3734,10 @@
         <v>108</v>
       </c>
       <c r="F59">
-        <v>0.5405</v>
+        <v>0.54049999999999998</v>
       </c>
       <c r="G59">
-        <v>0.2416</v>
+        <v>0.24160000000000001</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -3687,7 +3749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>67</v>
       </c>
@@ -3704,7 +3766,7 @@
         <v>99</v>
       </c>
       <c r="F60">
-        <v>0.6683</v>
+        <v>0.66830000000000001</v>
       </c>
       <c r="G60">
         <v>0.1787</v>
@@ -3719,7 +3781,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>68</v>
       </c>
@@ -3736,10 +3798,10 @@
         <v>68</v>
       </c>
       <c r="F61">
-        <v>0.6478</v>
+        <v>0.64780000000000004</v>
       </c>
       <c r="G61">
-        <v>0.1266</v>
+        <v>0.12659999999999999</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -3751,7 +3813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>69</v>
       </c>
@@ -3768,10 +3830,10 @@
         <v>36</v>
       </c>
       <c r="F62">
-        <v>0.556</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="G62">
-        <v>0.0779</v>
+        <v>7.7899999999999997E-2</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -3783,7 +3845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>70</v>
       </c>
@@ -3800,10 +3862,10 @@
         <v>40</v>
       </c>
       <c r="F63">
-        <v>0.5594</v>
+        <v>0.55940000000000001</v>
       </c>
       <c r="G63">
-        <v>0.0858</v>
+        <v>8.5800000000000001E-2</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -3815,7 +3877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>71</v>
       </c>
@@ -3832,10 +3894,10 @@
         <v>53</v>
       </c>
       <c r="F64">
-        <v>0.593</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="G64">
-        <v>0.1073</v>
+        <v>0.10730000000000001</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -3847,7 +3909,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>72</v>
       </c>
@@ -3864,10 +3926,10 @@
         <v>26</v>
       </c>
       <c r="F65">
-        <v>0.5312</v>
+        <v>0.53120000000000001</v>
       </c>
       <c r="G65">
-        <v>0.0587</v>
+        <v>5.8700000000000002E-2</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -3879,7 +3941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>73</v>
       </c>
@@ -3896,7 +3958,7 @@
         <v>181</v>
       </c>
       <c r="F66">
-        <v>0.5108</v>
+        <v>0.51080000000000003</v>
       </c>
       <c r="G66">
         <v>0.4249</v>
@@ -3911,7 +3973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>74</v>
       </c>
@@ -3928,7 +3990,7 @@
         <v>46</v>
       </c>
       <c r="F67">
-        <v>0.5077</v>
+        <v>0.50770000000000004</v>
       </c>
       <c r="G67">
         <v>0.1067</v>
@@ -3943,7 +4005,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>75</v>
       </c>
@@ -3960,10 +4022,10 @@
         <v>38</v>
       </c>
       <c r="F68">
-        <v>0.6354</v>
+        <v>0.63539999999999996</v>
       </c>
       <c r="G68">
-        <v>0.0701</v>
+        <v>7.0099999999999996E-2</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -3975,7 +4037,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>76</v>
       </c>
@@ -3992,10 +4054,10 @@
         <v>42</v>
       </c>
       <c r="F69">
-        <v>0.6182</v>
+        <v>0.61819999999999997</v>
       </c>
       <c r="G69">
-        <v>0.0672</v>
+        <v>6.7199999999999996E-2</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -4007,7 +4069,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>77</v>
       </c>
@@ -4024,10 +4086,10 @@
         <v>57</v>
       </c>
       <c r="F70">
-        <v>0.5798</v>
+        <v>0.57979999999999998</v>
       </c>
       <c r="G70">
-        <v>0.0956</v>
+        <v>9.5600000000000004E-2</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -4039,7 +4101,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>78</v>
       </c>
@@ -4056,7 +4118,7 @@
         <v>83</v>
       </c>
       <c r="F71">
-        <v>0.6045</v>
+        <v>0.60450000000000004</v>
       </c>
       <c r="G71">
         <v>0.1341</v>
@@ -4071,7 +4133,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>79</v>
       </c>
@@ -4088,10 +4150,10 @@
         <v>22</v>
       </c>
       <c r="F72">
-        <v>0.5812</v>
+        <v>0.58120000000000005</v>
       </c>
       <c r="G72">
-        <v>0.0366</v>
+        <v>3.6600000000000001E-2</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -4103,7 +4165,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>80</v>
       </c>
@@ -4120,10 +4182,10 @@
         <v>26</v>
       </c>
       <c r="F73">
-        <v>0.5427999999999999</v>
+        <v>0.54279999999999995</v>
       </c>
       <c r="G73">
-        <v>0.0461</v>
+        <v>4.6100000000000002E-2</v>
       </c>
       <c r="H73">
         <v>4</v>
@@ -4135,7 +4197,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>81</v>
       </c>
@@ -4155,7 +4217,7 @@
         <v>0.6986</v>
       </c>
       <c r="G74">
-        <v>0.3315</v>
+        <v>0.33150000000000002</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -4167,7 +4229,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>82</v>
       </c>
@@ -4184,7 +4246,7 @@
         <v>86</v>
       </c>
       <c r="F75">
-        <v>0.5679</v>
+        <v>0.56789999999999996</v>
       </c>
       <c r="G75">
         <v>0.1429</v>
@@ -4199,7 +4261,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>83</v>
       </c>
@@ -4216,7 +4278,7 @@
         <v>60</v>
       </c>
       <c r="F76">
-        <v>0.485</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="G76">
         <v>0.1163</v>
@@ -4231,7 +4293,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>84</v>
       </c>
@@ -4248,10 +4310,10 @@
         <v>238</v>
       </c>
       <c r="F77">
-        <v>0.6181</v>
+        <v>0.61809999999999998</v>
       </c>
       <c r="G77">
-        <v>0.3623</v>
+        <v>0.36230000000000001</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -4263,7 +4325,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>85</v>
       </c>
@@ -4280,7 +4342,7 @@
         <v>100</v>
       </c>
       <c r="F78">
-        <v>0.5962</v>
+        <v>0.59619999999999995</v>
       </c>
       <c r="G78">
         <v>0.1575</v>
@@ -4295,7 +4357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>86</v>
       </c>
@@ -4312,10 +4374,10 @@
         <v>62</v>
       </c>
       <c r="F79">
-        <v>0.6248</v>
+        <v>0.62480000000000002</v>
       </c>
       <c r="G79">
-        <v>0.0931</v>
+        <v>9.3100000000000002E-2</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -4327,7 +4389,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>87</v>
       </c>
@@ -4344,10 +4406,10 @@
         <v>97</v>
       </c>
       <c r="F80">
-        <v>0.6474</v>
+        <v>0.64739999999999998</v>
       </c>
       <c r="G80">
-        <v>0.1398</v>
+        <v>0.13980000000000001</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -4359,7 +4421,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>88</v>
       </c>
@@ -4376,10 +4438,10 @@
         <v>115</v>
       </c>
       <c r="F81">
-        <v>0.7393</v>
+        <v>0.73929999999999996</v>
       </c>
       <c r="G81">
-        <v>0.1448</v>
+        <v>0.14480000000000001</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -4391,7 +4453,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>89</v>
       </c>
@@ -4408,7 +4470,7 @@
         <v>148</v>
       </c>
       <c r="F82">
-        <v>0.7124</v>
+        <v>0.71240000000000003</v>
       </c>
       <c r="G82">
         <v>0.1915</v>
@@ -4423,7 +4485,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>90</v>
       </c>
@@ -4440,10 +4502,10 @@
         <v>252</v>
       </c>
       <c r="F83">
-        <v>0.6529</v>
+        <v>0.65290000000000004</v>
       </c>
       <c r="G83">
-        <v>0.3554</v>
+        <v>0.35539999999999999</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -4455,7 +4517,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>91</v>
       </c>
@@ -4472,10 +4534,10 @@
         <v>107</v>
       </c>
       <c r="F84">
-        <v>0.6138</v>
+        <v>0.61380000000000001</v>
       </c>
       <c r="G84">
-        <v>0.1599</v>
+        <v>0.15989999999999999</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -4487,7 +4549,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>92</v>
       </c>
@@ -4504,10 +4566,10 @@
         <v>46</v>
       </c>
       <c r="F85">
-        <v>0.6929</v>
+        <v>0.69289999999999996</v>
       </c>
       <c r="G85">
-        <v>0.0614</v>
+        <v>6.1400000000000003E-2</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -4519,7 +4581,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>93</v>
       </c>
@@ -4536,10 +4598,10 @@
         <v>54</v>
       </c>
       <c r="F86">
-        <v>0.7415</v>
+        <v>0.74150000000000005</v>
       </c>
       <c r="G86">
-        <v>0.0667</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -4551,7 +4613,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>94</v>
       </c>
@@ -4568,10 +4630,10 @@
         <v>39</v>
       </c>
       <c r="F87">
-        <v>0.6236</v>
+        <v>0.62360000000000004</v>
       </c>
       <c r="G87">
-        <v>0.0573</v>
+        <v>5.7299999999999997E-2</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -4583,7 +4645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>95</v>
       </c>
@@ -4600,10 +4662,10 @@
         <v>214</v>
       </c>
       <c r="F88">
-        <v>0.5518999999999999</v>
+        <v>0.55189999999999995</v>
       </c>
       <c r="G88">
-        <v>0.3531</v>
+        <v>0.35310000000000002</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -4615,7 +4677,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>96</v>
       </c>
@@ -4632,10 +4694,10 @@
         <v>192</v>
       </c>
       <c r="F89">
-        <v>0.6521</v>
+        <v>0.65210000000000001</v>
       </c>
       <c r="G89">
-        <v>0.2682</v>
+        <v>0.26819999999999999</v>
       </c>
       <c r="H89">
         <v>3</v>
@@ -4647,7 +4709,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>97</v>
       </c>
@@ -4664,10 +4726,10 @@
         <v>52</v>
       </c>
       <c r="F90">
-        <v>0.6655</v>
+        <v>0.66549999999999998</v>
       </c>
       <c r="G90">
-        <v>0.067</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -4679,7 +4741,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>98</v>
       </c>
@@ -4696,10 +4758,10 @@
         <v>303</v>
       </c>
       <c r="F91">
-        <v>0.643</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="G91">
-        <v>0.394</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -4711,7 +4773,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>99</v>
       </c>
@@ -4728,10 +4790,10 @@
         <v>53</v>
       </c>
       <c r="F92">
-        <v>0.6279</v>
+        <v>0.62790000000000001</v>
       </c>
       <c r="G92">
-        <v>0.0696</v>
+        <v>6.9599999999999995E-2</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -4743,7 +4805,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>100</v>
       </c>
@@ -4760,7 +4822,7 @@
         <v>87</v>
       </c>
       <c r="F93">
-        <v>0.5809</v>
+        <v>0.58089999999999997</v>
       </c>
       <c r="G93">
         <v>0.1212</v>
@@ -4775,7 +4837,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>101</v>
       </c>
@@ -4792,10 +4854,10 @@
         <v>71</v>
       </c>
       <c r="F94">
-        <v>0.6389</v>
+        <v>0.63890000000000002</v>
       </c>
       <c r="G94">
-        <v>0.0898</v>
+        <v>8.9800000000000005E-2</v>
       </c>
       <c r="H94">
         <v>5</v>
@@ -4807,7 +4869,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>102</v>
       </c>
@@ -4824,10 +4886,10 @@
         <v>8</v>
       </c>
       <c r="F95">
-        <v>2.2623</v>
+        <v>2.2623000000000002</v>
       </c>
       <c r="G95">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -4839,7 +4901,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>103</v>
       </c>
@@ -4856,10 +4918,10 @@
         <v>68</v>
       </c>
       <c r="F96">
-        <v>0.6176</v>
+        <v>0.61760000000000004</v>
       </c>
       <c r="G96">
-        <v>0.0887</v>
+        <v>8.8700000000000001E-2</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -4871,7 +4933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>104</v>
       </c>
@@ -4888,10 +4950,10 @@
         <v>236</v>
       </c>
       <c r="F97">
-        <v>0.5869</v>
+        <v>0.58689999999999998</v>
       </c>
       <c r="G97">
-        <v>0.322</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -4903,7 +4965,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>105</v>
       </c>
@@ -4920,10 +4982,10 @@
         <v>167</v>
       </c>
       <c r="F98">
-        <v>0.5591</v>
+        <v>0.55910000000000004</v>
       </c>
       <c r="G98">
-        <v>0.2386</v>
+        <v>0.23860000000000001</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -4935,7 +4997,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>106</v>
       </c>
@@ -4952,10 +5014,10 @@
         <v>36</v>
       </c>
       <c r="F99">
-        <v>0.6064000000000001</v>
+        <v>0.60640000000000005</v>
       </c>
       <c r="G99">
-        <v>0.0473</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -4967,7 +5029,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>107</v>
       </c>
@@ -4984,10 +5046,10 @@
         <v>70</v>
       </c>
       <c r="F100">
-        <v>0.6594</v>
+        <v>0.65939999999999999</v>
       </c>
       <c r="G100">
-        <v>0.0827</v>
+        <v>8.2699999999999996E-2</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -4999,7 +5061,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>108</v>
       </c>
@@ -5019,7 +5081,7 @@
         <v>1.2942</v>
       </c>
       <c r="G101">
-        <v>0.0553</v>
+        <v>5.5300000000000002E-2</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -5031,7 +5093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>109</v>
       </c>
@@ -5048,7 +5110,7 @@
         <v>97</v>
       </c>
       <c r="F102">
-        <v>0.6085</v>
+        <v>0.60850000000000004</v>
       </c>
       <c r="G102">
         <v>0.1236</v>
@@ -5063,7 +5125,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>110</v>
       </c>
@@ -5080,10 +5142,10 @@
         <v>305</v>
       </c>
       <c r="F103">
-        <v>0.5337</v>
+        <v>0.53369999999999995</v>
       </c>
       <c r="G103">
-        <v>0.4433</v>
+        <v>0.44330000000000003</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -5095,7 +5157,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>111</v>
       </c>
@@ -5112,10 +5174,10 @@
         <v>80</v>
       </c>
       <c r="F104">
-        <v>0.6299</v>
+        <v>0.62990000000000002</v>
       </c>
       <c r="G104">
-        <v>0.0985</v>
+        <v>9.8500000000000004E-2</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -5127,7 +5189,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>112</v>
       </c>
@@ -5147,7 +5209,7 @@
         <v>0.6109</v>
       </c>
       <c r="G105">
-        <v>0.1536</v>
+        <v>0.15359999999999999</v>
       </c>
       <c r="H105">
         <v>9</v>
@@ -5159,7 +5221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>113</v>
       </c>
@@ -5176,10 +5238,10 @@
         <v>271</v>
       </c>
       <c r="F106">
-        <v>0.6672</v>
+        <v>0.66720000000000002</v>
       </c>
       <c r="G106">
-        <v>0.3159</v>
+        <v>0.31590000000000001</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -5191,7 +5253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>114</v>
       </c>
@@ -5208,10 +5270,10 @@
         <v>75</v>
       </c>
       <c r="F107">
-        <v>0.6058</v>
+        <v>0.60580000000000001</v>
       </c>
       <c r="G107">
-        <v>0.0963</v>
+        <v>9.6299999999999997E-2</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -5223,7 +5285,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>115</v>
       </c>
@@ -5240,7 +5302,7 @@
         <v>125</v>
       </c>
       <c r="F108">
-        <v>0.5527</v>
+        <v>0.55269999999999997</v>
       </c>
       <c r="G108">
         <v>0.1656</v>
@@ -5255,7 +5317,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>116</v>
       </c>
@@ -5272,7 +5334,7 @@
         <v>100</v>
       </c>
       <c r="F109">
-        <v>0.5872000000000001</v>
+        <v>0.58720000000000006</v>
       </c>
       <c r="G109">
         <v>0.1242</v>
@@ -5287,7 +5349,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>117</v>
       </c>
@@ -5304,10 +5366,10 @@
         <v>92</v>
       </c>
       <c r="F110">
-        <v>0.7063</v>
+        <v>0.70630000000000004</v>
       </c>
       <c r="G110">
-        <v>0.0949</v>
+        <v>9.4899999999999998E-2</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -5319,7 +5381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>118</v>
       </c>
@@ -5336,10 +5398,10 @@
         <v>115</v>
       </c>
       <c r="F111">
-        <v>0.6116</v>
+        <v>0.61160000000000003</v>
       </c>
       <c r="G111">
-        <v>0.1367</v>
+        <v>0.13669999999999999</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -5351,7 +5413,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>119</v>
       </c>
@@ -5368,7 +5430,7 @@
         <v>93</v>
       </c>
       <c r="F112">
-        <v>0.5905</v>
+        <v>0.59050000000000002</v>
       </c>
       <c r="G112">
         <v>0.1145</v>
@@ -5383,7 +5445,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>120</v>
       </c>
@@ -5400,10 +5462,10 @@
         <v>200</v>
       </c>
       <c r="F113">
-        <v>0.5124</v>
+        <v>0.51239999999999997</v>
       </c>
       <c r="G113">
-        <v>0.2841</v>
+        <v>0.28410000000000002</v>
       </c>
       <c r="H113">
         <v>4</v>
@@ -5415,7 +5477,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>121</v>
       </c>
@@ -5432,10 +5494,10 @@
         <v>101</v>
       </c>
       <c r="F114">
-        <v>0.5712</v>
+        <v>0.57120000000000004</v>
       </c>
       <c r="G114">
-        <v>0.1292</v>
+        <v>0.12920000000000001</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -5447,7 +5509,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>122</v>
       </c>
@@ -5464,7 +5526,7 @@
         <v>116</v>
       </c>
       <c r="F115">
-        <v>0.6758999999999999</v>
+        <v>0.67589999999999995</v>
       </c>
       <c r="G115">
         <v>0.125</v>
@@ -5479,7 +5541,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>123</v>
       </c>
@@ -5496,10 +5558,10 @@
         <v>416</v>
       </c>
       <c r="F116">
-        <v>0.5254</v>
+        <v>0.52539999999999998</v>
       </c>
       <c r="G116">
-        <v>0.5738</v>
+        <v>0.57379999999999998</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -5511,7 +5573,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>124</v>
       </c>
@@ -5528,10 +5590,10 @@
         <v>108</v>
       </c>
       <c r="F117">
-        <v>0.4377</v>
+        <v>0.43769999999999998</v>
       </c>
       <c r="G117">
-        <v>0.1788</v>
+        <v>0.17879999999999999</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -5543,7 +5605,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>125</v>
       </c>
@@ -5560,7 +5622,7 @@
         <v>121</v>
       </c>
       <c r="F118">
-        <v>0.4482</v>
+        <v>0.44819999999999999</v>
       </c>
       <c r="G118">
         <v>0.1958</v>
@@ -5575,7 +5637,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>126</v>
       </c>
@@ -5592,10 +5654,10 @@
         <v>204</v>
       </c>
       <c r="F119">
-        <v>0.644</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="G119">
-        <v>0.2269</v>
+        <v>0.22689999999999999</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -5607,7 +5669,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>127</v>
       </c>
@@ -5624,10 +5686,10 @@
         <v>139</v>
       </c>
       <c r="F120">
-        <v>0.5221</v>
+        <v>0.52210000000000001</v>
       </c>
       <c r="G120">
-        <v>0.1902</v>
+        <v>0.19020000000000001</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -5639,7 +5701,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>128</v>
       </c>
@@ -5656,10 +5718,10 @@
         <v>106</v>
       </c>
       <c r="F121">
-        <v>0.5664</v>
+        <v>0.56640000000000001</v>
       </c>
       <c r="G121">
-        <v>0.1337</v>
+        <v>0.13370000000000001</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -5671,7 +5733,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>129</v>
       </c>
@@ -5688,10 +5750,10 @@
         <v>152</v>
       </c>
       <c r="F122">
-        <v>0.5833</v>
+        <v>0.58330000000000004</v>
       </c>
       <c r="G122">
-        <v>0.1856</v>
+        <v>0.18559999999999999</v>
       </c>
       <c r="H122">
         <v>3</v>
@@ -5703,7 +5765,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>130</v>
       </c>
@@ -5720,7 +5782,7 @@
         <v>88</v>
       </c>
       <c r="F123">
-        <v>0.5622</v>
+        <v>0.56220000000000003</v>
       </c>
       <c r="G123">
         <v>0.1081</v>
@@ -5735,7 +5797,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>131</v>
       </c>
@@ -5752,10 +5814,10 @@
         <v>328</v>
       </c>
       <c r="F124">
-        <v>0.4941</v>
+        <v>0.49409999999999998</v>
       </c>
       <c r="G124">
-        <v>0.4575</v>
+        <v>0.45750000000000002</v>
       </c>
       <c r="H124">
         <v>4</v>
@@ -5767,7 +5829,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>132</v>
       </c>
@@ -5784,10 +5846,10 @@
         <v>633</v>
       </c>
       <c r="F125">
-        <v>0.534</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="G125">
-        <v>0.8136</v>
+        <v>0.81359999999999999</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -5799,7 +5861,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>133</v>
       </c>
@@ -5816,10 +5878,10 @@
         <v>388</v>
       </c>
       <c r="F126">
-        <v>0.5977</v>
+        <v>0.59770000000000001</v>
       </c>
       <c r="G126">
-        <v>0.445</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -5831,7 +5893,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>134</v>
       </c>
@@ -5848,10 +5910,10 @@
         <v>423</v>
       </c>
       <c r="F127">
-        <v>0.513</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="G127">
-        <v>0.5632</v>
+        <v>0.56320000000000003</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -5863,7 +5925,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>135</v>
       </c>
@@ -5880,10 +5942,10 @@
         <v>625</v>
       </c>
       <c r="F128">
-        <v>0.6325</v>
+        <v>0.63249999999999995</v>
       </c>
       <c r="G128">
-        <v>0.6531</v>
+        <v>0.65310000000000001</v>
       </c>
       <c r="H128">
         <v>3</v>
@@ -5895,7 +5957,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>136</v>
       </c>
@@ -5912,10 +5974,10 @@
         <v>248</v>
       </c>
       <c r="F129">
-        <v>0.6335</v>
+        <v>0.63349999999999995</v>
       </c>
       <c r="G129">
-        <v>0.2307</v>
+        <v>0.23069999999999999</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -5927,7 +5989,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>137</v>
       </c>
@@ -5944,10 +6006,10 @@
         <v>534</v>
       </c>
       <c r="F130">
-        <v>0.5712</v>
+        <v>0.57120000000000004</v>
       </c>
       <c r="G130">
-        <v>0.5477</v>
+        <v>0.54769999999999996</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -5959,7 +6021,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>138</v>
       </c>
@@ -5976,10 +6038,10 @@
         <v>633</v>
       </c>
       <c r="F131">
-        <v>0.6692</v>
+        <v>0.66920000000000002</v>
       </c>
       <c r="G131">
-        <v>0.5528</v>
+        <v>0.55279999999999996</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -5991,7 +6053,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>139</v>
       </c>
@@ -6008,10 +6070,10 @@
         <v>283</v>
       </c>
       <c r="F132">
-        <v>0.5613</v>
+        <v>0.56130000000000002</v>
       </c>
       <c r="G132">
-        <v>0.293</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="H132">
         <v>4</v>
@@ -6023,7 +6085,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>140</v>
       </c>
@@ -6040,10 +6102,10 @@
         <v>579</v>
       </c>
       <c r="F133">
-        <v>0.5598</v>
+        <v>0.55979999999999996</v>
       </c>
       <c r="G133">
-        <v>0.5975</v>
+        <v>0.59750000000000003</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -6055,7 +6117,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>141</v>
       </c>
@@ -6072,10 +6134,10 @@
         <v>614</v>
       </c>
       <c r="F134">
-        <v>0.5276</v>
+        <v>0.52759999999999996</v>
       </c>
       <c r="G134">
-        <v>0.6696</v>
+        <v>0.66959999999999997</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -6087,7 +6149,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>142</v>
       </c>
@@ -6107,7 +6169,7 @@
         <v>0.5786</v>
       </c>
       <c r="G135">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -6119,7 +6181,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>143</v>
       </c>
@@ -6136,10 +6198,10 @@
         <v>225</v>
       </c>
       <c r="F136">
-        <v>0.5849</v>
+        <v>0.58489999999999998</v>
       </c>
       <c r="G136">
-        <v>0.2193</v>
+        <v>0.21929999999999999</v>
       </c>
       <c r="H136">
         <v>3</v>
@@ -6151,7 +6213,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>144</v>
       </c>
@@ -6168,10 +6230,10 @@
         <v>497</v>
       </c>
       <c r="F137">
-        <v>0.4838</v>
+        <v>0.48380000000000001</v>
       </c>
       <c r="G137">
-        <v>0.584</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -6183,7 +6245,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>145</v>
       </c>
@@ -6200,10 +6262,10 @@
         <v>560</v>
       </c>
       <c r="F138">
-        <v>0.6322</v>
+        <v>0.63219999999999998</v>
       </c>
       <c r="G138">
-        <v>0.4951</v>
+        <v>0.49509999999999998</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -6215,7 +6277,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>146</v>
       </c>
@@ -6247,7 +6309,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>147</v>
       </c>
@@ -6264,10 +6326,10 @@
         <v>687</v>
       </c>
       <c r="F140">
-        <v>0.5914</v>
+        <v>0.59140000000000004</v>
       </c>
       <c r="G140">
-        <v>0.6016</v>
+        <v>0.60160000000000002</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -6279,7 +6341,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>148</v>
       </c>
@@ -6296,10 +6358,10 @@
         <v>311</v>
       </c>
       <c r="F141">
-        <v>0.5911999999999999</v>
+        <v>0.59119999999999995</v>
       </c>
       <c r="G141">
-        <v>0.2665</v>
+        <v>0.26650000000000001</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -6311,7 +6373,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>149</v>
       </c>
@@ -6328,10 +6390,10 @@
         <v>253</v>
       </c>
       <c r="F142">
-        <v>0.5537</v>
+        <v>0.55369999999999997</v>
       </c>
       <c r="G142">
-        <v>0.2292</v>
+        <v>0.22919999999999999</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -6343,7 +6405,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>150</v>
       </c>
@@ -6360,10 +6422,10 @@
         <v>725</v>
       </c>
       <c r="F143">
-        <v>0.5592</v>
+        <v>0.55920000000000003</v>
       </c>
       <c r="G143">
-        <v>0.6473</v>
+        <v>0.64729999999999999</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -6375,7 +6437,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>151</v>
       </c>
@@ -6392,10 +6454,10 @@
         <v>241</v>
       </c>
       <c r="F144">
-        <v>0.5246</v>
+        <v>0.52459999999999996</v>
       </c>
       <c r="G144">
-        <v>0.2242</v>
+        <v>0.22420000000000001</v>
       </c>
       <c r="H144">
         <v>6</v>
@@ -6407,7 +6469,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>152</v>
       </c>
@@ -6424,7 +6486,7 @@
         <v>406</v>
       </c>
       <c r="F145">
-        <v>0.5854</v>
+        <v>0.58540000000000003</v>
       </c>
       <c r="G145">
         <v>0.3367</v>
@@ -6439,7 +6501,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>153</v>
       </c>
@@ -6456,7 +6518,7 @@
         <v>385</v>
       </c>
       <c r="F146">
-        <v>0.6049</v>
+        <v>0.60489999999999999</v>
       </c>
       <c r="G146">
         <v>0.312</v>
@@ -6471,7 +6533,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>154</v>
       </c>
@@ -6488,10 +6550,10 @@
         <v>423</v>
       </c>
       <c r="F147">
-        <v>0.5306</v>
+        <v>0.53059999999999996</v>
       </c>
       <c r="G147">
-        <v>0.387</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -6503,7 +6565,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>155</v>
       </c>
@@ -6520,10 +6582,10 @@
         <v>757</v>
       </c>
       <c r="F148">
-        <v>0.5453</v>
+        <v>0.54530000000000001</v>
       </c>
       <c r="G148">
-        <v>0.6617</v>
+        <v>0.66169999999999995</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -6535,7 +6597,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>156</v>
       </c>
@@ -6552,10 +6614,10 @@
         <v>518</v>
       </c>
       <c r="F149">
-        <v>0.5705</v>
+        <v>0.57050000000000001</v>
       </c>
       <c r="G149">
-        <v>0.4342</v>
+        <v>0.43419999999999997</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -6567,7 +6629,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>157</v>
       </c>
@@ -6584,10 +6646,10 @@
         <v>279</v>
       </c>
       <c r="F150">
-        <v>0.534</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="G150">
-        <v>0.2469</v>
+        <v>0.24690000000000001</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -6599,7 +6661,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>158</v>
       </c>
@@ -6616,10 +6678,10 @@
         <v>479</v>
       </c>
       <c r="F151">
-        <v>0.5263</v>
+        <v>0.52629999999999999</v>
       </c>
       <c r="G151">
-        <v>0.4281</v>
+        <v>0.42809999999999998</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -6631,7 +6693,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>159</v>
       </c>
@@ -6648,10 +6710,10 @@
         <v>752</v>
       </c>
       <c r="F152">
-        <v>0.6062</v>
+        <v>0.60619999999999996</v>
       </c>
       <c r="G152">
-        <v>0.5667</v>
+        <v>0.56669999999999998</v>
       </c>
       <c r="H152">
         <v>4</v>
@@ -6663,7 +6725,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>160</v>
       </c>
@@ -6680,10 +6742,10 @@
         <v>673</v>
       </c>
       <c r="F153">
-        <v>0.5677</v>
+        <v>0.56769999999999998</v>
       </c>
       <c r="G153">
-        <v>0.5283</v>
+        <v>0.52829999999999999</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -6695,7 +6757,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>161</v>
       </c>
@@ -6712,10 +6774,10 @@
         <v>533</v>
       </c>
       <c r="F154">
-        <v>0.5134</v>
+        <v>0.51339999999999997</v>
       </c>
       <c r="G154">
-        <v>0.4559</v>
+        <v>0.45590000000000003</v>
       </c>
       <c r="H154">
         <v>3</v>
@@ -6727,7 +6789,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>162</v>
       </c>
@@ -6744,10 +6806,10 @@
         <v>858</v>
       </c>
       <c r="F155">
-        <v>0.5743</v>
+        <v>0.57430000000000003</v>
       </c>
       <c r="G155">
-        <v>0.649</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -6759,7 +6821,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>163</v>
       </c>
@@ -6776,10 +6838,10 @@
         <v>367</v>
       </c>
       <c r="F156">
-        <v>0.5236</v>
+        <v>0.52359999999999995</v>
       </c>
       <c r="G156">
-        <v>0.3069</v>
+        <v>0.30690000000000001</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -6791,7 +6853,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>164</v>
       </c>
@@ -6808,7 +6870,7 @@
         <v>256</v>
       </c>
       <c r="F157">
-        <v>0.4814</v>
+        <v>0.48139999999999999</v>
       </c>
       <c r="G157">
         <v>0.2298</v>
@@ -6823,7 +6885,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>165</v>
       </c>
@@ -6840,10 +6902,10 @@
         <v>380</v>
       </c>
       <c r="F158">
-        <v>0.5177</v>
+        <v>0.51770000000000005</v>
       </c>
       <c r="G158">
-        <v>0.3167</v>
+        <v>0.31669999999999998</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -6855,7 +6917,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>166</v>
       </c>
@@ -6872,10 +6934,10 @@
         <v>357</v>
       </c>
       <c r="F159">
-        <v>0.5387999999999999</v>
+        <v>0.53879999999999995</v>
       </c>
       <c r="G159">
-        <v>0.2856</v>
+        <v>0.28560000000000002</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -6887,7 +6949,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>167</v>
       </c>
@@ -6904,7 +6966,7 @@
         <v>303</v>
       </c>
       <c r="F160">
-        <v>0.5824</v>
+        <v>0.58240000000000003</v>
       </c>
       <c r="G160">
         <v>0.2228</v>
@@ -6919,7 +6981,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>168</v>
       </c>
@@ -6936,10 +6998,10 @@
         <v>355</v>
       </c>
       <c r="F161">
-        <v>0.5407</v>
+        <v>0.54069999999999996</v>
       </c>
       <c r="G161">
-        <v>0.2795</v>
+        <v>0.27950000000000003</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -6951,7 +7013,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>169</v>
       </c>
@@ -6968,10 +7030,10 @@
         <v>337</v>
       </c>
       <c r="F162">
-        <v>0.5384</v>
+        <v>0.53839999999999999</v>
       </c>
       <c r="G162">
-        <v>0.2654</v>
+        <v>0.26540000000000002</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -6983,7 +7045,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>170</v>
       </c>
@@ -7000,10 +7062,10 @@
         <v>862</v>
       </c>
       <c r="F163">
-        <v>0.5205</v>
+        <v>0.52049999999999996</v>
       </c>
       <c r="G163">
-        <v>0.6985</v>
+        <v>0.69850000000000001</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -7015,7 +7077,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>171</v>
       </c>
@@ -7035,7 +7097,7 @@
         <v>0.5847</v>
       </c>
       <c r="G164">
-        <v>0.2246</v>
+        <v>0.22459999999999999</v>
       </c>
       <c r="H164">
         <v>5</v>
@@ -7047,7 +7109,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>172</v>
       </c>
@@ -7064,10 +7126,10 @@
         <v>342</v>
       </c>
       <c r="F165">
-        <v>0.4789</v>
+        <v>0.47889999999999999</v>
       </c>
       <c r="G165">
-        <v>0.2982</v>
+        <v>0.29820000000000002</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -7079,7 +7141,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>173</v>
       </c>
@@ -7096,10 +7158,10 @@
         <v>355</v>
       </c>
       <c r="F166">
-        <v>0.5068</v>
+        <v>0.50680000000000003</v>
       </c>
       <c r="G166">
-        <v>0.2907</v>
+        <v>0.29070000000000001</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -7111,7 +7173,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>174</v>
       </c>
@@ -7128,10 +7190,10 @@
         <v>816</v>
       </c>
       <c r="F167">
-        <v>0.5332</v>
+        <v>0.53320000000000001</v>
       </c>
       <c r="G167">
-        <v>0.6345</v>
+        <v>0.63449999999999995</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -7143,7 +7205,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>175</v>
       </c>
@@ -7160,10 +7222,10 @@
         <v>840</v>
       </c>
       <c r="F168">
-        <v>0.5717</v>
+        <v>0.57169999999999999</v>
       </c>
       <c r="G168">
-        <v>0.6087</v>
+        <v>0.60870000000000002</v>
       </c>
       <c r="H168">
         <v>3</v>
@@ -7175,7 +7237,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>176</v>
       </c>
@@ -7192,10 +7254,10 @@
         <v>331</v>
       </c>
       <c r="F169">
-        <v>0.5750999999999999</v>
+        <v>0.57509999999999994</v>
       </c>
       <c r="G169">
-        <v>0.2381</v>
+        <v>0.23810000000000001</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -7207,7 +7269,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>177</v>
       </c>
@@ -7224,7 +7286,7 @@
         <v>753</v>
       </c>
       <c r="F170">
-        <v>0.5697</v>
+        <v>0.56969999999999998</v>
       </c>
       <c r="G170">
         <v>0.5464</v>
@@ -7239,7 +7301,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>178</v>
       </c>
@@ -7256,10 +7318,10 @@
         <v>419</v>
       </c>
       <c r="F171">
-        <v>0.5713</v>
+        <v>0.57130000000000003</v>
       </c>
       <c r="G171">
-        <v>0.3023</v>
+        <v>0.30230000000000001</v>
       </c>
       <c r="H171">
         <v>3</v>
@@ -7271,7 +7333,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>179</v>
       </c>
@@ -7288,10 +7350,10 @@
         <v>682</v>
       </c>
       <c r="F172">
-        <v>0.4823</v>
+        <v>0.48230000000000001</v>
       </c>
       <c r="G172">
-        <v>0.5765</v>
+        <v>0.57650000000000001</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -7303,7 +7365,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>180</v>
       </c>
@@ -7320,10 +7382,10 @@
         <v>821</v>
       </c>
       <c r="F173">
-        <v>0.5871</v>
+        <v>0.58709999999999996</v>
       </c>
       <c r="G173">
-        <v>0.5666</v>
+        <v>0.56659999999999999</v>
       </c>
       <c r="H173">
         <v>3</v>
@@ -7335,7 +7397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>181</v>
       </c>
@@ -7352,10 +7414,10 @@
         <v>625</v>
       </c>
       <c r="F174">
-        <v>0.4623</v>
+        <v>0.46229999999999999</v>
       </c>
       <c r="G174">
-        <v>0.5449000000000001</v>
+        <v>0.54490000000000005</v>
       </c>
       <c r="H174">
         <v>4</v>
@@ -7367,7 +7429,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>182</v>
       </c>
@@ -7384,10 +7446,10 @@
         <v>736</v>
       </c>
       <c r="F175">
-        <v>0.5265</v>
+        <v>0.52649999999999997</v>
       </c>
       <c r="G175">
-        <v>0.5618</v>
+        <v>0.56179999999999997</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -7399,7 +7461,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>183</v>
       </c>
@@ -7416,10 +7478,10 @@
         <v>1331</v>
       </c>
       <c r="F176">
-        <v>0.5581</v>
+        <v>0.55810000000000004</v>
       </c>
       <c r="G176">
-        <v>0.9562</v>
+        <v>0.95620000000000005</v>
       </c>
       <c r="H176">
         <v>3</v>
@@ -7431,7 +7493,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>184</v>
       </c>
@@ -7448,10 +7510,10 @@
         <v>839</v>
       </c>
       <c r="F177">
-        <v>0.5032</v>
+        <v>0.50319999999999998</v>
       </c>
       <c r="G177">
-        <v>0.6664</v>
+        <v>0.66639999999999999</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -7463,7 +7525,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>185</v>
       </c>
@@ -7480,7 +7542,7 @@
         <v>614</v>
       </c>
       <c r="F178">
-        <v>0.4747</v>
+        <v>0.47470000000000001</v>
       </c>
       <c r="G178">
         <v>0.5151</v>
@@ -7495,7 +7557,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>186</v>
       </c>
@@ -7512,10 +7574,10 @@
         <v>879</v>
       </c>
       <c r="F179">
-        <v>0.4024</v>
+        <v>0.40239999999999998</v>
       </c>
       <c r="G179">
-        <v>0.8592</v>
+        <v>0.85919999999999996</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -7527,7 +7589,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>187</v>
       </c>
@@ -7544,10 +7606,10 @@
         <v>726</v>
       </c>
       <c r="F180">
-        <v>0.4323</v>
+        <v>0.43230000000000002</v>
       </c>
       <c r="G180">
-        <v>0.6606</v>
+        <v>0.66059999999999997</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -7559,7 +7621,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>188</v>
       </c>
@@ -7576,10 +7638,10 @@
         <v>756</v>
       </c>
       <c r="F181">
-        <v>0.4437</v>
+        <v>0.44369999999999998</v>
       </c>
       <c r="G181">
-        <v>0.6667</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="H181">
         <v>4</v>
@@ -7591,7 +7653,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>189</v>
       </c>
@@ -7608,7 +7670,7 @@
         <v>594</v>
       </c>
       <c r="F182">
-        <v>0.5082</v>
+        <v>0.50819999999999999</v>
       </c>
       <c r="G182">
         <v>0.4587</v>
@@ -7623,7 +7685,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>190</v>
       </c>
@@ -7640,10 +7702,10 @@
         <v>738</v>
       </c>
       <c r="F183">
-        <v>0.4949</v>
+        <v>0.49490000000000001</v>
       </c>
       <c r="G183">
-        <v>0.5816</v>
+        <v>0.58160000000000001</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -7655,7 +7717,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>191</v>
       </c>
@@ -7672,10 +7734,10 @@
         <v>320</v>
       </c>
       <c r="F184">
-        <v>0.3852</v>
+        <v>0.38519999999999999</v>
       </c>
       <c r="G184">
-        <v>0.3229</v>
+        <v>0.32290000000000002</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -7687,7 +7749,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>192</v>
       </c>
@@ -7704,10 +7766,10 @@
         <v>356</v>
       </c>
       <c r="F185">
-        <v>0.4992</v>
+        <v>0.49919999999999998</v>
       </c>
       <c r="G185">
-        <v>0.277</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -7719,7 +7781,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>193</v>
       </c>
@@ -7736,10 +7798,10 @@
         <v>277</v>
       </c>
       <c r="F186">
-        <v>0.4944</v>
+        <v>0.49440000000000001</v>
       </c>
       <c r="G186">
-        <v>0.2169</v>
+        <v>0.21690000000000001</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -7751,7 +7813,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>194</v>
       </c>
@@ -7768,10 +7830,10 @@
         <v>334</v>
       </c>
       <c r="F187">
-        <v>0.4429</v>
+        <v>0.44290000000000002</v>
       </c>
       <c r="G187">
-        <v>0.2902</v>
+        <v>0.29020000000000001</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -7783,7 +7845,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>195</v>
       </c>
@@ -7815,7 +7877,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>196</v>
       </c>
@@ -7832,10 +7894,10 @@
         <v>274</v>
       </c>
       <c r="F189">
-        <v>0.4989</v>
+        <v>0.49890000000000001</v>
       </c>
       <c r="G189">
-        <v>0.2103</v>
+        <v>0.21029999999999999</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -7847,7 +7909,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>197</v>
       </c>
@@ -7864,10 +7926,10 @@
         <v>302</v>
       </c>
       <c r="F190">
-        <v>0.4855</v>
+        <v>0.48549999999999999</v>
       </c>
       <c r="G190">
-        <v>0.2367</v>
+        <v>0.23669999999999999</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -7879,7 +7941,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>198</v>
       </c>
@@ -7896,10 +7958,10 @@
         <v>243</v>
       </c>
       <c r="F191">
-        <v>0.483</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="G191">
-        <v>0.1901</v>
+        <v>0.19009999999999999</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -7911,7 +7973,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>199</v>
       </c>
@@ -7928,10 +7990,10 @@
         <v>335</v>
       </c>
       <c r="F192">
-        <v>0.4944</v>
+        <v>0.49440000000000001</v>
       </c>
       <c r="G192">
-        <v>0.2551</v>
+        <v>0.25509999999999999</v>
       </c>
       <c r="H192">
         <v>3</v>
@@ -7943,7 +8005,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>200</v>
       </c>
@@ -7960,7 +8022,7 @@
         <v>238</v>
       </c>
       <c r="F193">
-        <v>0.5014999999999999</v>
+        <v>0.50149999999999995</v>
       </c>
       <c r="G193">
         <v>0.1779</v>
@@ -7975,7 +8037,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>201</v>
       </c>
@@ -7992,7 +8054,7 @@
         <v>244</v>
       </c>
       <c r="F194">
-        <v>0.4608</v>
+        <v>0.46079999999999999</v>
       </c>
       <c r="G194">
         <v>0.1976</v>
@@ -8007,7 +8069,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>202</v>
       </c>
@@ -8027,7 +8089,7 @@
         <v>0.4879</v>
       </c>
       <c r="G195">
-        <v>0.2784</v>
+        <v>0.27839999999999998</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -8039,7 +8101,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>203</v>
       </c>
@@ -8056,10 +8118,10 @@
         <v>335</v>
       </c>
       <c r="F196">
-        <v>0.5046</v>
+        <v>0.50460000000000005</v>
       </c>
       <c r="G196">
-        <v>0.2461</v>
+        <v>0.24610000000000001</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -8071,7 +8133,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>204</v>
       </c>
@@ -8088,10 +8150,10 @@
         <v>244</v>
       </c>
       <c r="F197">
-        <v>0.4976</v>
+        <v>0.49759999999999999</v>
       </c>
       <c r="G197">
-        <v>0.1814</v>
+        <v>0.18140000000000001</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -8103,7 +8165,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>205</v>
       </c>
@@ -8120,10 +8182,10 @@
         <v>185</v>
       </c>
       <c r="F198">
-        <v>0.4761</v>
+        <v>0.47610000000000002</v>
       </c>
       <c r="G198">
-        <v>0.1432</v>
+        <v>0.14319999999999999</v>
       </c>
       <c r="H198">
         <v>2</v>
@@ -8135,7 +8197,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>206</v>
       </c>
@@ -8152,10 +8214,10 @@
         <v>336</v>
       </c>
       <c r="F199">
-        <v>0.5037</v>
+        <v>0.50370000000000004</v>
       </c>
       <c r="G199">
-        <v>0.2454</v>
+        <v>0.24540000000000001</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -8167,7 +8229,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>207</v>
       </c>
@@ -8184,10 +8246,10 @@
         <v>259</v>
       </c>
       <c r="F200">
-        <v>0.5422</v>
+        <v>0.54220000000000002</v>
       </c>
       <c r="G200">
-        <v>0.1751</v>
+        <v>0.17510000000000001</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -8199,7 +8261,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>208</v>
       </c>
@@ -8216,10 +8278,10 @@
         <v>206</v>
       </c>
       <c r="F201">
-        <v>0.4644</v>
+        <v>0.46439999999999998</v>
       </c>
       <c r="G201">
-        <v>0.1619</v>
+        <v>0.16189999999999999</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -8231,7 +8293,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>209</v>
       </c>
@@ -8248,7 +8310,7 @@
         <v>236</v>
       </c>
       <c r="F202">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G202">
         <v>0.1595</v>
@@ -8263,7 +8325,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>210</v>
       </c>
@@ -8280,10 +8342,10 @@
         <v>292</v>
       </c>
       <c r="F203">
-        <v>0.5462</v>
+        <v>0.54620000000000002</v>
       </c>
       <c r="G203">
-        <v>0.1947</v>
+        <v>0.19470000000000001</v>
       </c>
       <c r="H203">
         <v>3</v>
@@ -8295,7 +8357,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>211</v>
       </c>
@@ -8312,10 +8374,10 @@
         <v>252</v>
       </c>
       <c r="F204">
-        <v>0.5165999999999999</v>
+        <v>0.51659999999999995</v>
       </c>
       <c r="G204">
-        <v>0.1776</v>
+        <v>0.17760000000000001</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -8327,7 +8389,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>212</v>
       </c>
@@ -8344,10 +8406,10 @@
         <v>265</v>
       </c>
       <c r="F205">
-        <v>0.5293</v>
+        <v>0.52929999999999999</v>
       </c>
       <c r="G205">
-        <v>0.1814</v>
+        <v>0.18140000000000001</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -8359,7 +8421,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>213</v>
       </c>
@@ -8376,10 +8438,10 @@
         <v>243</v>
       </c>
       <c r="F206">
-        <v>0.4394</v>
+        <v>0.43940000000000001</v>
       </c>
       <c r="G206">
-        <v>0.1949</v>
+        <v>0.19489999999999999</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -8391,7 +8453,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>214</v>
       </c>
@@ -8408,7 +8470,7 @@
         <v>270</v>
       </c>
       <c r="F207">
-        <v>0.5271</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="G207">
         <v>0.1802</v>
@@ -8423,7 +8485,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>215</v>
       </c>
@@ -8440,10 +8502,10 @@
         <v>374</v>
       </c>
       <c r="F208">
-        <v>0.5374</v>
+        <v>0.53739999999999999</v>
       </c>
       <c r="G208">
-        <v>0.2446</v>
+        <v>0.24460000000000001</v>
       </c>
       <c r="H208">
         <v>2</v>
@@ -8455,7 +8517,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>216</v>
       </c>
@@ -8472,7 +8534,7 @@
         <v>410</v>
       </c>
       <c r="F209">
-        <v>0.5007</v>
+        <v>0.50070000000000003</v>
       </c>
       <c r="G209">
         <v>0.2873</v>
@@ -8487,7 +8549,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>217</v>
       </c>
@@ -8504,10 +8566,10 @@
         <v>315</v>
       </c>
       <c r="F210">
-        <v>0.4993</v>
+        <v>0.49930000000000002</v>
       </c>
       <c r="G210">
-        <v>0.2212</v>
+        <v>0.22120000000000001</v>
       </c>
       <c r="H210">
         <v>3</v>
@@ -8519,7 +8581,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>218</v>
       </c>
@@ -8536,10 +8598,10 @@
         <v>317</v>
       </c>
       <c r="F211">
-        <v>0.5165999999999999</v>
+        <v>0.51659999999999995</v>
       </c>
       <c r="G211">
-        <v>0.2146</v>
+        <v>0.21460000000000001</v>
       </c>
       <c r="H211">
         <v>1</v>
@@ -8551,7 +8613,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>219</v>
       </c>
@@ -8568,10 +8630,10 @@
         <v>356</v>
       </c>
       <c r="F212">
-        <v>0.5243</v>
+        <v>0.52429999999999999</v>
       </c>
       <c r="G212">
-        <v>0.2372</v>
+        <v>0.23719999999999999</v>
       </c>
       <c r="H212">
         <v>3</v>
@@ -8583,7 +8645,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>220</v>
       </c>
@@ -8615,7 +8677,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>221</v>
       </c>
@@ -8632,10 +8694,10 @@
         <v>276</v>
       </c>
       <c r="F214">
-        <v>0.5354</v>
+        <v>0.53539999999999999</v>
       </c>
       <c r="G214">
-        <v>0.177</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -8647,7 +8709,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>222</v>
       </c>
@@ -8664,10 +8726,10 @@
         <v>257</v>
       </c>
       <c r="F215">
-        <v>0.523</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="G215">
-        <v>0.1675</v>
+        <v>0.16750000000000001</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -8679,7 +8741,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>223</v>
       </c>
@@ -8696,10 +8758,10 @@
         <v>220</v>
       </c>
       <c r="F216">
-        <v>0.4376</v>
+        <v>0.43759999999999999</v>
       </c>
       <c r="G216">
-        <v>0.1705</v>
+        <v>0.17050000000000001</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -8711,7 +8773,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>224</v>
       </c>
@@ -8728,7 +8790,7 @@
         <v>238</v>
       </c>
       <c r="F217">
-        <v>0.5919</v>
+        <v>0.59189999999999998</v>
       </c>
       <c r="G217">
         <v>0.1353</v>
@@ -8743,7 +8805,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>225</v>
       </c>
@@ -8760,10 +8822,10 @@
         <v>223</v>
       </c>
       <c r="F218">
-        <v>0.5042</v>
+        <v>0.50419999999999998</v>
       </c>
       <c r="G218">
-        <v>0.1483</v>
+        <v>0.14829999999999999</v>
       </c>
       <c r="H218">
         <v>3</v>
@@ -8775,7 +8837,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>226</v>
       </c>
@@ -8792,10 +8854,10 @@
         <v>257</v>
       </c>
       <c r="F219">
-        <v>0.4928</v>
+        <v>0.49280000000000002</v>
       </c>
       <c r="G219">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="H219">
         <v>4</v>
@@ -8807,7 +8869,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>227</v>
       </c>
@@ -8824,7 +8886,7 @@
         <v>271</v>
       </c>
       <c r="F220">
-        <v>0.5175</v>
+        <v>0.51749999999999996</v>
       </c>
       <c r="G220">
         <v>0.1729</v>
@@ -8839,7 +8901,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>228</v>
       </c>
@@ -8856,7 +8918,7 @@
         <v>269</v>
       </c>
       <c r="F221">
-        <v>0.4855</v>
+        <v>0.48549999999999999</v>
       </c>
       <c r="G221">
         <v>0.182</v>
@@ -8871,7 +8933,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>229</v>
       </c>
@@ -8888,7 +8950,7 @@
         <v>346</v>
       </c>
       <c r="F222">
-        <v>0.4958</v>
+        <v>0.49580000000000002</v>
       </c>
       <c r="G222">
         <v>0.2273</v>
@@ -8903,7 +8965,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>230</v>
       </c>
@@ -8920,10 +8982,10 @@
         <v>311</v>
       </c>
       <c r="F223">
-        <v>0.5034</v>
+        <v>0.50339999999999996</v>
       </c>
       <c r="G223">
-        <v>0.1936</v>
+        <v>0.19359999999999999</v>
       </c>
       <c r="H223">
         <v>1</v>
@@ -8935,7 +8997,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>231</v>
       </c>
@@ -8952,10 +9014,10 @@
         <v>312</v>
       </c>
       <c r="F224">
-        <v>0.5049</v>
+        <v>0.50490000000000002</v>
       </c>
       <c r="G224">
-        <v>0.1878</v>
+        <v>0.18779999999999999</v>
       </c>
       <c r="H224">
         <v>1</v>
@@ -8967,7 +9029,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>232</v>
       </c>
@@ -8987,7 +9049,7 @@
         <v>0.4955</v>
       </c>
       <c r="G225">
-        <v>0.2042</v>
+        <v>0.20419999999999999</v>
       </c>
       <c r="H225">
         <v>6</v>
@@ -8999,7 +9061,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>233</v>
       </c>
@@ -9016,10 +9078,10 @@
         <v>349</v>
       </c>
       <c r="F226">
-        <v>0.4934</v>
+        <v>0.49340000000000001</v>
       </c>
       <c r="G226">
-        <v>0.2022</v>
+        <v>0.20219999999999999</v>
       </c>
       <c r="H226">
         <v>2</v>
@@ -9031,7 +9093,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>234</v>
       </c>
@@ -9048,10 +9110,10 @@
         <v>311</v>
       </c>
       <c r="F227">
-        <v>0.4771</v>
+        <v>0.47710000000000002</v>
       </c>
       <c r="G227">
-        <v>0.1828</v>
+        <v>0.18279999999999999</v>
       </c>
       <c r="H227">
         <v>2</v>
@@ -9063,7 +9125,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>235</v>
       </c>
@@ -9080,7 +9142,7 @@
         <v>352</v>
       </c>
       <c r="F228">
-        <v>0.509</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="G228">
         <v>0.1915</v>
@@ -9095,7 +9157,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>236</v>
       </c>
@@ -9112,10 +9174,10 @@
         <v>376</v>
       </c>
       <c r="F229">
-        <v>0.5255</v>
+        <v>0.52549999999999997</v>
       </c>
       <c r="G229">
-        <v>0.1974</v>
+        <v>0.19739999999999999</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -9127,7 +9189,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>237</v>
       </c>
@@ -9144,10 +9206,10 @@
         <v>245</v>
       </c>
       <c r="F230">
-        <v>0.4353</v>
+        <v>0.43530000000000002</v>
       </c>
       <c r="G230">
-        <v>0.1543</v>
+        <v>0.15429999999999999</v>
       </c>
       <c r="H230">
         <v>1</v>
@@ -9159,7 +9221,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>238</v>
       </c>
@@ -9176,7 +9238,7 @@
         <v>307</v>
       </c>
       <c r="F231">
-        <v>0.5384</v>
+        <v>0.53839999999999999</v>
       </c>
       <c r="G231">
         <v>0.1552</v>
@@ -9191,7 +9253,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>239</v>
       </c>
@@ -9208,7 +9270,7 @@
         <v>333</v>
       </c>
       <c r="F232">
-        <v>0.4701</v>
+        <v>0.47010000000000002</v>
       </c>
       <c r="G232">
         <v>0.1905</v>
@@ -9223,7 +9285,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>240</v>
       </c>
@@ -9240,10 +9302,10 @@
         <v>357</v>
       </c>
       <c r="F233">
-        <v>0.5145</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="G233">
-        <v>0.1846</v>
+        <v>0.18459999999999999</v>
       </c>
       <c r="H233">
         <v>3</v>
@@ -9255,7 +9317,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>241</v>
       </c>
@@ -9272,7 +9334,7 @@
         <v>388</v>
       </c>
       <c r="F234">
-        <v>0.5044999999999999</v>
+        <v>0.50449999999999995</v>
       </c>
       <c r="G234">
         <v>0.2034</v>
